--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/126.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/126.xlsx
@@ -479,13 +479,13 @@
         <v>-29.33658195729713</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.289410533734673</v>
+        <v>-9.763469727330731</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.007042830526736</v>
+        <v>-3.054855920504719</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.952339647012798</v>
+        <v>-6.545080565869105</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-28.39606229903388</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.570711752591999</v>
+        <v>-10.05385700436022</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.016011057973318</v>
+        <v>-3.010198075511592</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.910156247256757</v>
+        <v>-6.511577362897127</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-27.18843657197503</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.39522570865538</v>
+        <v>-10.87769016067583</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.854491317814943</v>
+        <v>-2.822375898944189</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.79147452199651</v>
+        <v>-6.392686160791413</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-25.83624018278949</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.13651189555391</v>
+        <v>-11.60630299842357</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.789435664994406</v>
+        <v>-2.786856481334587</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.019843560464738</v>
+        <v>-6.633859471438849</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-24.36779000373644</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.95783132972391</v>
+        <v>-12.45783946755227</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.625114172027903</v>
+        <v>-2.592226307289487</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.553967056144758</v>
+        <v>-6.146760344212431</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-22.83844742474637</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.64334430651669</v>
+        <v>-13.143273890528</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.578269912460207</v>
+        <v>-2.532263560274381</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.657631910045545</v>
+        <v>-6.236953218489082</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-21.31334593200951</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.1810844611349</v>
+        <v>-13.70941125000992</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.465990323289564</v>
+        <v>-2.436270795838846</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.179461733357184</v>
+        <v>-5.728330345390866</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-19.87578388836311</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.17379523180594</v>
+        <v>-14.71482155443743</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.2461443739713</v>
+        <v>-2.248684280722595</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.021411453451867</v>
+        <v>-5.529392803710838</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-18.56692189019424</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.92795115239789</v>
+        <v>-15.46364890777279</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.22604768910925</v>
+        <v>-2.219514629991229</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.638906733627998</v>
+        <v>-5.154612542563588</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-17.45408922282782</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.6104005303257</v>
+        <v>-16.16504284791258</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.030069007871453</v>
+        <v>-2.012067091464079</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.409280834086964</v>
+        <v>-4.920495983147842</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.56990345177061</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.26504185701769</v>
+        <v>-16.81533753006112</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.082961911352026</v>
+        <v>-2.125158403410909</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.880338706978389</v>
+        <v>-4.396096885125346</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.89620394616911</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.24557678604592</v>
+        <v>-17.79118541467201</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.887284353079588</v>
+        <v>-1.912591774472645</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.241028466914064</v>
+        <v>-3.725024718366993</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.43058532923797</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.84767870143406</v>
+        <v>-18.38215887264469</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.620502498073736</v>
+        <v>-1.655341115935569</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.922492738774868</v>
+        <v>-3.451395588974918</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.1374908377863</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.75405882716676</v>
+        <v>-19.3099449135236</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.475099382713526</v>
+        <v>-1.517400613195143</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.335761186922915</v>
+        <v>-2.859021254598181</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.9563456581978</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.65809543069078</v>
+        <v>-20.22996721881738</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.31158961252321</v>
+        <v>-1.346729353350402</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.940098702743111</v>
+        <v>-2.433089366248306</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.86346833851331</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.4560451042883</v>
+        <v>-21.02710516963871</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.102741197591995</v>
+        <v>-1.169014434576813</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.430232060874931</v>
+        <v>-1.9413817484216</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.82026847254967</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.41942911659388</v>
+        <v>-21.98720301393101</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.014341968804661</v>
+        <v>-1.067968041244371</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.069761686733687</v>
+        <v>-1.567256102416436</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.78358171160887</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.25877665177693</v>
+        <v>-22.83210168551896</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8931203367931193</v>
+        <v>-0.9720407383230441</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.698804378016221</v>
+        <v>-1.219118677552098</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.7448929059483</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.92000340679831</v>
+        <v>-23.52285158344843</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6557437939697839</v>
+        <v>-0.7579161253466141</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.3564668433107677</v>
+        <v>-0.8817562179265011</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-14.68091935605115</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.53909913127501</v>
+        <v>-24.13461561833376</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3688914387075658</v>
+        <v>-0.4871280256711939</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.009114956616933423</v>
+        <v>-0.5183531679487106</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-14.57011416825068</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.19489258061707</v>
+        <v>-24.80698392307345</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1743790953880416</v>
+        <v>-0.3363832507515599</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09321448239399753</v>
+        <v>-0.3311986988262364</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-14.41725402315116</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.64445607559626</v>
+        <v>-25.22749559804684</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.09747490849574265</v>
+        <v>-0.2718251054390087</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3202873828808945</v>
+        <v>-0.1329943261053455</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-14.2178780069351</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.0513648479171</v>
+        <v>-25.66755408116294</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1294986812466046</v>
+        <v>-0.3050533700513094</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3166739072965781</v>
+        <v>-0.1028427526608503</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.97704087767601</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.31703385718141</v>
+        <v>-25.92126981793275</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1738761602018718</v>
+        <v>-0.001704713208516468</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3055847267896361</v>
+        <v>-0.09413637127110251</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-13.71869849014342</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.31584245762281</v>
+        <v>-25.9316389217834</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1612813648681314</v>
+        <v>-0.03435691649578129</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1489484155912254</v>
+        <v>-0.2578294337012035</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.45271496516345</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.29547083440109</v>
+        <v>-25.9462630240576</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.03566614677995389</v>
+        <v>-0.2296024287744421</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1584927043628437</v>
+        <v>-0.2320506894058449</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-13.1953407971569</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.37411629757133</v>
+        <v>-25.99474382148052</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1309464991838521</v>
+        <v>-0.02965677977560163</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1342773717838346</v>
+        <v>-0.5303195327460482</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.96887851376026</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.43715573575425</v>
+        <v>-26.08959755556882</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07895696459935783</v>
+        <v>-0.08527288224725396</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2134727116734356</v>
+        <v>-0.5952966317495346</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.7747565716125</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.20586711375231</v>
+        <v>-25.83126023589588</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03476277788387479</v>
+        <v>-0.1865549370308468</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3862518322756945</v>
+        <v>-0.7402284242074423</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.62057130641564</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.75568828053956</v>
+        <v>-25.40507959379202</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.03939745308984582</v>
+        <v>-0.1954577029632205</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8883416462558893</v>
+        <v>-1.260045216235334</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.51368809386417</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.80838479947751</v>
+        <v>-25.47611842901122</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02523924603975578</v>
+        <v>-0.1146520098240873</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.016135614293977</v>
+        <v>-1.420897248948781</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.44210333900501</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.40938377807307</v>
+        <v>-25.05592096930602</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0305994255802059</v>
+        <v>-0.1629756996128982</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.510487877294712</v>
+        <v>-1.922319355484047</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.40686070487994</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.79862785050654</v>
+        <v>-24.42406024955864</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1195485310868928</v>
+        <v>-0.214074957604155</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.569521070808055</v>
+        <v>-1.956621188929369</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.40544457018495</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.45106648696724</v>
+        <v>-24.06749138166423</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3141787051319925</v>
+        <v>-0.4129863146784992</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.670449633414921</v>
+        <v>-2.093029892237313</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-12.41817499067006</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.69218424504943</v>
+        <v>-23.27789459727973</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4242718797280671</v>
+        <v>-0.5109429245402937</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.855247488025885</v>
+        <v>-2.264303398012774</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-12.4447101433573</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.89825390842432</v>
+        <v>-22.4851818448189</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3636937944794005</v>
+        <v>-0.4596472820064109</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.998896234805303</v>
+        <v>-2.425823138171148</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-12.47888371385257</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.50743557629596</v>
+        <v>-22.10862103048518</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.427191463261772</v>
+        <v>-0.5184579063714444</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.262234814163781</v>
+        <v>-2.697920468130741</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-12.50202256273125</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.85940586253904</v>
+        <v>-21.45325962713689</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3302691453244739</v>
+        <v>-0.4535462688821665</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.431361182273199</v>
+        <v>-2.884040645328719</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-12.52200539318124</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.49424844398046</v>
+        <v>-21.06195687980339</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5604187369791764</v>
+        <v>-0.6441701982576981</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.648523209508909</v>
+        <v>-3.078670819373819</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.5398080572122</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.91281927477941</v>
+        <v>-20.4392869566509</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3177921807163089</v>
+        <v>-0.4334364917172753</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.532211191063015</v>
+        <v>-2.987221084024362</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.5475111407425</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.37475181259015</v>
+        <v>-19.93447394367962</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.07741750054221833</v>
+        <v>-0.1880867364633288</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.587342878329523</v>
+        <v>-3.087377200763567</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.56262016142937</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.47140910111673</v>
+        <v>-19.01750214494797</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.06462632066585196</v>
+        <v>-0.1659607446608117</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.529645099706036</v>
+        <v>-3.062397086941553</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.59043480630796</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.14871002067387</v>
+        <v>-18.68512785270507</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.02228581327570985</v>
+        <v>-0.1164849322219289</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.735246623532502</v>
+        <v>-3.291041063769457</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-12.62809507407798</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.60591623715875</v>
+        <v>-18.11861081644074</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.04569485075671606</v>
+        <v>-0.1431539531105249</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.787406358053939</v>
+        <v>-3.358518792615714</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-12.69070630250654</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.16979853719801</v>
+        <v>-17.65705477205853</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01657214155853312</v>
+        <v>-0.06933954968887333</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.66855443285675</v>
+        <v>-3.182165473337663</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-12.77393099186817</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.50147575403642</v>
+        <v>-16.97306050239539</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0110133405289837</v>
+        <v>-0.1193652388471086</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.016416919361411</v>
+        <v>-3.557993118712252</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-12.86805562013855</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.84388865920504</v>
+        <v>-16.31417726958269</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01066751297691467</v>
+        <v>-0.07621300868077953</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.92076455479976</v>
+        <v>-3.422330676666286</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-12.98003538668523</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.25630610766838</v>
+        <v>-15.67871616655383</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1135730133128816</v>
+        <v>0.01593061871928855</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.170199108540326</v>
+        <v>-3.714105737796993</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-13.10219657583607</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.56004435024254</v>
+        <v>-14.96368004685296</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2248052182561862</v>
+        <v>0.09503431248899745</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.12335484897263</v>
+        <v>-3.67365052201606</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-13.2315637275443</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.74588640572697</v>
+        <v>-14.14637994965537</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2428202269664013</v>
+        <v>0.1233660558384927</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.245545311394459</v>
+        <v>-3.839019399209902</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-13.37912895574873</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.15184934888933</v>
+        <v>-13.56302621193658</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3132175393463624</v>
+        <v>0.1916162305524106</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.215930522366475</v>
+        <v>-3.755398860959798</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-13.53980685702355</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.50825792579576</v>
+        <v>-12.89500455174035</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3738218092007123</v>
+        <v>0.2619873583266883</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.257302199346329</v>
+        <v>-3.809221317942133</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.71612401112449</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.1297725429443</v>
+        <v>-12.51153100150619</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2643308805353572</v>
+        <v>0.1288517307291759</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.411018927011035</v>
+        <v>-4.002332784857593</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.91658308172819</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.60818829003278</v>
+        <v>-11.92955195558578</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05776052629860334</v>
+        <v>-0.03355828602243599</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.866945281171303</v>
+        <v>-4.421927998632071</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-14.13020180022106</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.18520216982229</v>
+        <v>-11.50064811449084</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09085786788248683</v>
+        <v>-0.04123037548768747</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.962257245859069</v>
+        <v>-4.538122186352391</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-14.35638067131168</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.42046766853423</v>
+        <v>-10.72618603219138</v>
       </c>
       <c r="F57" t="n">
-        <v>0.03717942623140996</v>
+        <v>-0.08702725082804526</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.351399763223693</v>
+        <v>-4.95559644706651</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.59398632720847</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.1451889089841</v>
+        <v>-10.46720718967919</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1355604174623238</v>
+        <v>-0.2514665745201247</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.376432246257074</v>
+        <v>-4.967955580949099</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.82439410595199</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.557279049876389</v>
+        <v>-9.854003001481267</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.07191873334869338</v>
+        <v>-0.1995555937526808</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.667696707576954</v>
+        <v>-5.275821082272287</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-15.04683657154701</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.207636010185253</v>
+        <v>-9.532089459208906</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1835044304687246</v>
+        <v>-0.3039798012182879</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.56731802168944</v>
+        <v>-5.15448161953517</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.25758584758235</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.662839104335347</v>
+        <v>-8.968832406352169</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2087332980447308</v>
+        <v>-0.3304393452614163</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.950477356655394</v>
+        <v>-5.526774343142493</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.43718786796857</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.177297961147094</v>
+        <v>-8.492979567266792</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1684351898978979</v>
+        <v>-0.2822989477123896</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.956080862271653</v>
+        <v>-5.552828025797528</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-15.5897611893896</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.727878481499163</v>
+        <v>-8.042643626419942</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1847743838443721</v>
+        <v>-0.2961506041189357</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.93906086857741</v>
+        <v>-5.534708278664579</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-15.71260092902574</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.36900536830461</v>
+        <v>-7.6955404934801</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3439375094912359</v>
+        <v>-0.447694009511915</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.136191672465279</v>
+        <v>-5.711703120781873</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-15.78980749920334</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.012004454416423</v>
+        <v>-7.341432978519935</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2827309937061665</v>
+        <v>-0.3741152675414145</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.400368159205628</v>
+        <v>-5.957655121966539</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.8321673813927</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.764586115313484</v>
+        <v>-7.087625595630233</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3996321657799386</v>
+        <v>-0.4942109615085677</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.370386785698074</v>
+        <v>-5.90964564744593</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.83880464575797</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.59966237641626</v>
+        <v>-6.922230533830708</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4822445967112301</v>
+        <v>-0.5900597106128442</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.467767334234834</v>
+        <v>-5.994850354339883</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.79847809010434</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.325012047402531</v>
+        <v>-6.641675576235359</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4299801237670596</v>
+        <v>-0.5391830217698967</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.448731125902964</v>
+        <v>-5.958623952376827</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.72626025568161</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.197767956083796</v>
+        <v>-6.530391002080688</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7139259877984145</v>
+        <v>-0.8349774198730138</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.498455692095839</v>
+        <v>-5.980147698248625</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.62235252885997</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.000663336801609</v>
+        <v>-6.343629302043466</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6378466159851444</v>
+        <v>-0.7391810399801042</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.341570627143436</v>
+        <v>-5.809921576700503</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.48061265429409</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.900363204731146</v>
+        <v>-6.26455179287944</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7095007894379112</v>
+        <v>-0.8093426909089142</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.272286160505021</v>
+        <v>-5.71599739611396</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.31585109595556</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.902903111482441</v>
+        <v>-6.279621033450267</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8325553438472945</v>
+        <v>-0.9414440265819302</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.120022678455747</v>
+        <v>-5.525046159167385</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.1249216976971</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.953596508085604</v>
+        <v>-6.336768935354401</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8762312661272926</v>
+        <v>-0.9962484062773955</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.934714224033956</v>
+        <v>-5.352947838312896</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.90279940985811</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.175563410464228</v>
+        <v>-6.554035701012845</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7603120167666501</v>
+        <v>-0.8752886203226884</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.798122228486228</v>
+        <v>-5.202386355633046</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.66075402725043</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.362351295107134</v>
+        <v>-6.728045498082227</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.090067848441205</v>
+        <v>-1.222863076164832</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.63080259816897</v>
+        <v>-5.033011233769636</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.39467731296832</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.844305147316754</v>
+        <v>-7.196632109090444</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.02002402823797</v>
+        <v>-1.158920269085842</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.432218548665668</v>
+        <v>-4.802900919023458</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.1055342613045</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.293017642611232</v>
+        <v>-7.622694920468736</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.079554729259298</v>
+        <v>-1.227183536102602</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.359163498808837</v>
+        <v>-4.73889265043026</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.80721063774494</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.889516052383112</v>
+        <v>-8.224142220714789</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.141572967820555</v>
+        <v>-1.276266579456233</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.98448797608432</v>
+        <v>-4.381080013765886</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.49891603574438</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.305864375052844</v>
+        <v>-8.635227437642147</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.131256233181275</v>
+        <v>-1.2948314648858</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.826228219333536</v>
+        <v>-4.241516065473086</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.19087013573373</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.766346850602034</v>
+        <v>-9.082892548709285</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.28421360728116</v>
+        <v>-1.410161560618565</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.466163706580385</v>
+        <v>-3.886623012342418</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.90059060839522</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.666940178478686</v>
+        <v>-9.966924113491155</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.244033329859903</v>
+        <v>-1.394385335694285</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.462838261658587</v>
+        <v>-3.896114931902669</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.62916478402976</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.44358867535272</v>
+        <v>-10.71490046714181</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.326671945396878</v>
+        <v>-1.479053258171728</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.267553472471401</v>
+        <v>-3.690447946561994</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.39001520860167</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.25209074504067</v>
+        <v>-11.50067429909652</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.456586866495326</v>
+        <v>-1.613196993088053</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.921523908364581</v>
+        <v>-3.362839252553483</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.19560876246728</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.44155264281717</v>
+        <v>-12.69114430419183</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.525020333449028</v>
+        <v>-1.679640430009813</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.780467437547824</v>
+        <v>-3.215616307098273</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.04041268010668</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.33032362122774</v>
+        <v>-13.56614218001291</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.600916413022514</v>
+        <v>-1.741881237719379</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.451405497923881</v>
+        <v>-2.88305872261559</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.93456396958258</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.47722244246579</v>
+        <v>-14.68197296660754</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.791527250095204</v>
+        <v>-1.927215876746853</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.192937255222525</v>
+        <v>-2.629657201113981</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.88125750230915</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.54788478425646</v>
+        <v>-15.73445009975106</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.831275481522684</v>
+        <v>-1.958454111327211</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.772085180375241</v>
+        <v>-2.199902360334324</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.86535033142061</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.94704609664888</v>
+        <v>-17.126620122426</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.801974907762901</v>
+        <v>-1.900285009801422</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.474811352051008</v>
+        <v>-1.927582461226421</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.88969760761817</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.59036576473666</v>
+        <v>-18.75036679776539</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.028733592981597</v>
+        <v>-2.122631588962456</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.290380081919613</v>
+        <v>-1.747039605039019</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.94360850680445</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.17580436196116</v>
+        <v>-20.32611709088701</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.249509095801623</v>
+        <v>-2.332985618720469</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.005334464449553</v>
+        <v>-1.463198479430397</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.99999315461321</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.93060498874623</v>
+        <v>-22.01993377103533</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.435027027068882</v>
+        <v>-2.488155592000606</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.147896550093109</v>
+        <v>-1.600667659268521</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.0502349925961</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.60356563046767</v>
+        <v>-23.66465431552716</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.530705576236216</v>
+        <v>-2.599846027543371</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.9488935468988723</v>
+        <v>-1.399635349133817</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.0741052259729</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70104419183208</v>
+        <v>-25.76662353676628</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.671932246989915</v>
+        <v>-2.709114387060417</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.9289670619737652</v>
+        <v>-1.371997497834934</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.04620390169161</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.92900064331713</v>
+        <v>-27.97889540944695</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.531870791189129</v>
+        <v>-2.556196289869057</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.044886311334408</v>
+        <v>-1.465240878673707</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.9672604806404</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.20292417007948</v>
+        <v>-30.23833884926634</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.997197418789757</v>
+        <v>-2.994945542700981</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.39578621209835</v>
+        <v>-1.82267383855567</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.83539274078968</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.41733008812334</v>
+        <v>-32.46726413116168</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.039210618608856</v>
+        <v>-3.005327738854469</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.64526004274744</v>
+        <v>-2.082516773055407</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.6512197296908</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.64523417039702</v>
+        <v>-34.70852236233393</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.353425886810282</v>
+        <v>-3.281889544083091</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.838188217423115</v>
+        <v>-2.259302138327234</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.44194975441219</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.15823623935214</v>
+        <v>-37.21082801986735</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.604444609194696</v>
+        <v>-3.533837819969267</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.265874474353781</v>
+        <v>-2.709179848574625</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.21875006031507</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.65323639189987</v>
+        <v>-39.66317344975674</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.532227466719735</v>
+        <v>-3.471426812322759</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.731332024982826</v>
+        <v>-3.186656133212376</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.00504245945704</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.21885642597588</v>
+        <v>-42.23328414370746</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.711094508143396</v>
+        <v>-3.649050084976456</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.043491801638101</v>
+        <v>-3.47606148752873</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.81703722443045</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.51000942327794</v>
+        <v>-44.53225324580603</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.930770257524718</v>
+        <v>-3.85614413132688</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.605884762507286</v>
+        <v>-3.991701834950111</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.68813019929346</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.83062010197389</v>
+        <v>-46.85234023238831</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.073070497111439</v>
+        <v>-3.984265406936011</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.904664205658317</v>
+        <v>-4.299004367251106</v>
       </c>
     </row>
   </sheetData>
